--- a/r5-pica-main/StructureDefinition-aist-pica-auditevent-patientvisit.xlsx
+++ b/r5-pica-main/StructureDefinition-aist-pica-auditevent-patientvisit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T12:08:19+00:00</t>
+    <t>2023-09-06T14:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
